--- a/Data/OfficerList.xlsx
+++ b/Data/OfficerList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/hu0037ng_e_ntu_edu_sg/Documents/SC4079 - Final Year Project/SC2002/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Modules\Sem 2\SC 2002\SC2002Assignment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048D321184AB85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C16B74A7-F5B2-40A6-96FA-424B754D23FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE08E0-6693-499F-8A64-2EE16EB5512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8812" yWindow="4215" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -426,7 +429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -443,7 +446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
